--- a/Study 1/results/JOYSCIE_sem_results.xlsx
+++ b/Study 1/results/JOYSCIE_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427865696184936</v>
+        <v>0.427865742507712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.115725151631252</v>
+        <v>0.115725151468354</v>
       </c>
       <c r="D2" t="n">
-        <v>3.69725759831615</v>
+        <v>3.69725800380323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000217941160643553</v>
+        <v>0.000217940812646145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.201048566882245</v>
+        <v>0.201048613524296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.654682825487626</v>
+        <v>0.654682871491128</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.18366982112639</v>
+        <v>-0.183669803728677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.125858718046688</v>
+        <v>0.125858715802293</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.45933332213233</v>
+        <v>-1.45933320992404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.144473388248989</v>
+        <v>0.144473419117566</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.43034837563828</v>
+        <v>-0.430348353841634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.063008733385501</v>
+        <v>0.0630087463842793</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.36199011040582</v>
+        <v>-0.361990120922624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119353669208993</v>
+        <v>0.119353666456781</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.03291983233428</v>
+        <v>-3.03291999038591</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00242199933346399</v>
+        <v>0.00242199806497179</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.595919003478153</v>
+        <v>-0.595919008600721</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.128061217333486</v>
+        <v>-0.128061233244527</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.158353954805792</v>
+        <v>-0.158353939806069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108511162189054</v>
+        <v>0.108511160254012</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.45933332213233</v>
+        <v>-1.45933320992404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.144473388248989</v>
+        <v>0.144473419117566</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.371031924616923</v>
+        <v>-0.371031905824586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0543240150053385</v>
+        <v>0.0543240262124489</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.405795440921841</v>
+        <v>-0.405795452711311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.133796955856074</v>
+        <v>0.13379695277081</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.03291983233428</v>
+        <v>-3.03291999038591</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00242199933346399</v>
+        <v>0.00242199806497179</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.668032655640842</v>
+        <v>-0.668032661383306</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.143558226202841</v>
+        <v>-0.143558244039316</v>
       </c>
     </row>
     <row r="7">
@@ -582,22 +582,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.622201454857363</v>
+        <v>0.622201450236299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107618051609694</v>
+        <v>0.107618049103577</v>
       </c>
       <c r="D7" t="n">
-        <v>5.78157145154369</v>
+        <v>5.78157154324052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00000000740060368542572</v>
+        <v>0.00000000740059946657823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.41127394961599</v>
+        <v>0.411273949906826</v>
       </c>
       <c r="G7" t="n">
-        <v>0.833128960098736</v>
+        <v>0.833128950565773</v>
       </c>
     </row>
     <row r="8">
@@ -605,22 +605,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.423231348873846</v>
+        <v>0.423231352505911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132695728347764</v>
+        <v>0.132695724564107</v>
       </c>
       <c r="D8" t="n">
-        <v>3.18948736439093</v>
+        <v>3.18948748270668</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00142525369638213</v>
+        <v>0.00142525311296304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.163152500409917</v>
+        <v>0.163152511457815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.683310197337775</v>
+        <v>0.683310193554007</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.755917532665999</v>
+        <v>0.755917487431644</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147672661700644</v>
+        <v>0.147672653541095</v>
       </c>
       <c r="D9" t="n">
-        <v>5.11887253849573</v>
+        <v>5.11887251502042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000030736759626393</v>
+        <v>0.000000307367634455602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.466484434231569</v>
+        <v>0.466484404989637</v>
       </c>
       <c r="G9" t="n">
-        <v>1.04535063110043</v>
+        <v>1.04535056987365</v>
       </c>
     </row>
     <row r="10">
@@ -651,22 +651,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.198970105983517</v>
+        <v>0.198970097730388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.066374844294546</v>
+        <v>0.0663748438390738</v>
       </c>
       <c r="D10" t="n">
-        <v>2.9976734122428</v>
+        <v>2.99767330847199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00272049034973354</v>
+        <v>0.00272049127596663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0688778016867526</v>
+        <v>0.0688777943263334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.329062410280281</v>
+        <v>0.329062401134443</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247441486116049</v>
+        <v>0.247441512905242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0669256819538063</v>
+        <v>0.0669256818595998</v>
       </c>
       <c r="D11" t="n">
-        <v>3.69725759816447</v>
+        <v>3.69725800365155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000217941160773893</v>
+        <v>0.000217940812776263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116269559845807</v>
+        <v>0.116269586819641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.378613412386292</v>
+        <v>0.378613438990843</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.17832028927943</v>
+        <v>0.178320317193947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0633646701004593</v>
+        <v>0.06336467052455</v>
       </c>
       <c r="D12" t="n">
-        <v>2.81419107835199</v>
+        <v>2.81419150005456</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004890015244577</v>
+        <v>0.0048900088293613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0541278179902677</v>
+        <v>0.0541278450735819</v>
       </c>
       <c r="G12" t="n">
-        <v>0.302512760568592</v>
+        <v>0.302512789314311</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.270869608077839</v>
+        <v>0.270869637576916</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0842801321735003</v>
+        <v>0.084280133077046</v>
       </c>
       <c r="D13" t="n">
-        <v>3.21392006742731</v>
+        <v>3.21392038298393</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00130936117876712</v>
+        <v>0.00130935973982949</v>
       </c>
       <c r="F13" t="n">
-        <v>0.105683584405503</v>
+        <v>0.105683612133663</v>
       </c>
       <c r="G13" t="n">
-        <v>0.436055631750175</v>
+        <v>0.436055663020169</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.193396218139529</v>
+        <v>0.193396248247341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0691509710401707</v>
+        <v>0.069150971644882</v>
       </c>
       <c r="D14" t="n">
-        <v>2.79672454674835</v>
+        <v>2.79672495768402</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00516235246000107</v>
+        <v>0.00516234589461906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0578628054048225</v>
+        <v>0.0578628343274223</v>
       </c>
       <c r="G14" t="n">
-        <v>0.328929630874236</v>
+        <v>0.328929662167261</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.804109727542617</v>
+        <v>-0.804109607132025</v>
       </c>
       <c r="C15" t="n">
-        <v>0.345335005823166</v>
+        <v>0.345334946302265</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.32849179487577</v>
+        <v>-2.32849184752997</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0198860044345761</v>
+        <v>0.0198860016418516</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.48095390155695</v>
+        <v>-1.48095366448754</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.127265553528282</v>
+        <v>-0.127265549776512</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.564149395727634</v>
+        <v>-0.56414939251738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234251037408505</v>
+        <v>0.234251032118282</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.4083111945576</v>
+        <v>-2.40831123524152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0160265135286697</v>
+        <v>0.0160265117425238</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.02327299238945</v>
+        <v>-1.02327297881055</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.105025799065818</v>
+        <v>-0.105025806224212</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.282074697863817</v>
+        <v>-0.28207469625869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117125518704253</v>
+        <v>0.117125516059141</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.4083111945576</v>
+        <v>-2.40831123524152</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0160265135286697</v>
+        <v>0.0160265117425238</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.511636496194724</v>
+        <v>-0.511636489405274</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0525128995329092</v>
+        <v>-0.0525129031121059</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0346332117477675</v>
+        <v>-0.0346331833534475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.109865740610935</v>
+        <v>0.10986573957977</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.315232132921338</v>
+        <v>-0.31523187743438</v>
       </c>
       <c r="E18" t="n">
-        <v>0.752585409808081</v>
+        <v>0.752585603776315</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.249966106480019</v>
+        <v>-0.249966076064653</v>
       </c>
       <c r="G18" t="n">
-        <v>0.180699682984484</v>
+        <v>0.180699709357758</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.247441486116049</v>
+        <v>-0.247441512905242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0669256819538063</v>
+        <v>0.0669256818595998</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.69725759816447</v>
+        <v>-3.69725800365155</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000217941160773893</v>
+        <v>0.000217940812776263</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.378613412386292</v>
+        <v>-0.378613438990843</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.116269559845807</v>
+        <v>-0.116269586819641</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247441486116049</v>
+        <v>0.247441512905242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0669256819538063</v>
+        <v>0.0669256818595998</v>
       </c>
       <c r="D20" t="n">
-        <v>3.69725759816447</v>
+        <v>3.69725800365155</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000108970580386898</v>
+        <v>0.000108970406388147</v>
       </c>
       <c r="F20" t="n">
-        <v>0.116269559845807</v>
+        <v>0.116269586819641</v>
       </c>
       <c r="G20" t="n">
-        <v>0.378613412386292</v>
+        <v>0.378613438990843</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.564149395727634</v>
+        <v>0.56414939251738</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234251037408505</v>
+        <v>0.234251032118282</v>
       </c>
       <c r="D21" t="n">
-        <v>2.4083111945576</v>
+        <v>2.40831123524152</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00801325676433483</v>
+        <v>0.00801325587126191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.105025799065818</v>
+        <v>0.105025806224212</v>
       </c>
       <c r="G21" t="n">
-        <v>1.02327299238945</v>
+        <v>1.02327297881055</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.316707909611584</v>
+        <v>-0.316707879612137</v>
       </c>
       <c r="C22" t="n">
-        <v>0.217022324378108</v>
+        <v>0.217022320508024</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.45933332213233</v>
+        <v>-1.45933320992404</v>
       </c>
       <c r="E22" t="n">
-        <v>0.927763305875505</v>
+        <v>0.927763290441217</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.742063849233846</v>
+        <v>-0.742063811649172</v>
       </c>
       <c r="G22" t="n">
-        <v>0.108648030010677</v>
+        <v>0.108648052424898</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193396218139529</v>
+        <v>0.193396248247341</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0691509710401707</v>
+        <v>0.069150971644882</v>
       </c>
       <c r="D23" t="n">
-        <v>2.79672454674835</v>
+        <v>2.79672495768402</v>
       </c>
       <c r="E23" t="n">
-        <v>0.997418823769999</v>
+        <v>0.99741882705269</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270869608077839</v>
+        <v>0.270869637576916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0842801321735003</v>
+        <v>0.084280133077046</v>
       </c>
       <c r="D24" t="n">
-        <v>3.21392006742731</v>
+        <v>3.21392038298393</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999345319410616</v>
+        <v>0.999345320130085</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.804109727542617</v>
+        <v>0.804109607132025</v>
       </c>
       <c r="C25" t="n">
-        <v>0.345335005823166</v>
+        <v>0.345334946302265</v>
       </c>
       <c r="D25" t="n">
-        <v>2.32849179487577</v>
+        <v>2.32849184752997</v>
       </c>
       <c r="E25" t="n">
-        <v>0.990056997782712</v>
+        <v>0.990056999179074</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.804109727542617</v>
+        <v>0.804109607132025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345335005823166</v>
+        <v>0.345334946302265</v>
       </c>
       <c r="D26" t="n">
-        <v>2.32849179487577</v>
+        <v>2.32849184752997</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0099430022172881</v>
+        <v>0.00994300082092584</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
